--- a/biology/Médecine/Appareil_respiratoire_filtrant/Appareil_respiratoire_filtrant.xlsx
+++ b/biology/Médecine/Appareil_respiratoire_filtrant/Appareil_respiratoire_filtrant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un appareil respiratoire filtrant (ARF) est un dispositif étanche de protection des voies respiratoires, filtrant l'air inspiré susceptible d'être toxique. Le type le plus connu est le masque à gaz, qui est à usage militaire.
 Par rapport à un appareil respiratoire isolant, l'appareil filtrant est compact et léger, il peut donc se transporter facilement, mais il ne peut protéger que contre un type d'agression respiratoire déterminé, il est donc spécifique à un danger, à un environnement.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil respiratoire filtrant se compose d'un masque étanche ou d'une cagoule, et d'une cartouche de filtrage. Cette cartouche contient un filtre adapté à un ou plusieurs gaz toxiques. L'appareil respiratoire filtrant protège donc :
 des poussières et particules, à l'instar d'un masque anti-poussière ;
@@ -549,10 +563,12 @@
           <t>Filtres aérosols</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur une cartouche la catégorie sera indiquée par une bande blanche sur laquelle sera inscrite le type de filtre.
-Les filtres aérosols se bouchent mais la capacité de filtration n'est pas altérée, il convient donc de les changer lorsque le passage de l'air est difficile pour l'utilisateur[1].
+Les filtres aérosols se bouchent mais la capacité de filtration n'est pas altérée, il convient donc de les changer lorsque le passage de l'air est difficile pour l'utilisateur.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Filtres anti-gaz</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marquage de la catégorie se fera par une bande de couleur sur laquelle est indiqué le code correspondant.
 *Sauf CO
